--- a/ListasDatos/Castro Vasquez Julieta_2021.xlsx
+++ b/ListasDatos/Castro Vasquez Julieta_2021.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="706">
   <si>
     <t>NC</t>
   </si>
@@ -336,6 +336,9 @@
     <t>buenojoso1951@gmail.com</t>
   </si>
   <si>
+    <t>cristianantoniof2020@gmail.com</t>
+  </si>
+  <si>
     <t>misaelcocotle3@gmail.com</t>
   </si>
   <si>
@@ -441,6 +444,9 @@
     <t>2721546150</t>
   </si>
   <si>
+    <t>2721079631</t>
+  </si>
+  <si>
     <t>2451221093</t>
   </si>
   <si>
@@ -573,6 +579,9 @@
     <t>JOSÉ SOCORRO BUENO GARCÍA</t>
   </si>
   <si>
+    <t>FRANCISCO JAVIER CORTÉZ LEYNES</t>
+  </si>
+  <si>
     <t>ANDRES COCOTLE MARTINEZ</t>
   </si>
   <si>
@@ -669,6 +678,9 @@
     <t>bernabejosealfredo718@gmail.com</t>
   </si>
   <si>
+    <t>Cristianantoniof2020@gmail.com</t>
+  </si>
+  <si>
     <t>Bernardino colotl@gmail.com</t>
   </si>
   <si>
@@ -1758,6 +1770,9 @@
     <t>gc050405@gmail.com</t>
   </si>
   <si>
+    <t>cesarcuevasc3@gmail.com</t>
+  </si>
+  <si>
     <t>isyssmonserrathc@gmail.com</t>
   </si>
   <si>
@@ -1830,6 +1845,9 @@
     <t>2721690558</t>
   </si>
   <si>
+    <t>2722848082</t>
+  </si>
+  <si>
     <t>2721054944</t>
   </si>
   <si>
@@ -1933,6 +1951,9 @@
   </si>
   <si>
     <t>GERARDO CORTÉS VILLASCAN</t>
+  </si>
+  <si>
+    <t>GERARDO CUEVAS MACUIXTLE</t>
   </si>
   <si>
     <t>JANETH PIMENTEL DOMINGUEZ</t>
@@ -2534,16 +2555,16 @@
         <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2563,19 +2584,19 @@
         <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="J3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2595,19 +2616,19 @@
         <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="J4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2627,16 +2648,16 @@
         <v>104</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="J5" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2656,16 +2677,16 @@
         <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I6" t="s">
         <v>105</v>
       </c>
       <c r="J6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2681,6 +2702,21 @@
       <c r="D7" t="s">
         <v>73</v>
       </c>
+      <c r="E7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I7" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
@@ -2696,22 +2732,22 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H8" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J8" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2728,22 +2764,22 @@
         <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I9" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="J9" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2760,19 +2796,19 @@
         <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H10" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="J10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2789,22 +2825,22 @@
         <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H11" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I11" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="J11" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2821,22 +2857,22 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H12" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I12" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="J12" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2853,22 +2889,22 @@
         <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G13" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H13" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I13" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="J13" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2885,16 +2921,16 @@
         <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F14" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G14" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H14" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2911,19 +2947,19 @@
         <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H15" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="J15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2940,22 +2976,22 @@
         <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H16" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2972,22 +3008,22 @@
         <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G17" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H17" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J17" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3004,19 +3040,19 @@
         <v>83</v>
       </c>
       <c r="E18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H18" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="I18" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="J18" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3033,22 +3069,22 @@
         <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F19" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G19" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H19" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="I19" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="J19" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3065,16 +3101,16 @@
         <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F20" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G20" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H20" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3091,22 +3127,22 @@
         <v>86</v>
       </c>
       <c r="E21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F21" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G21" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H21" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I21" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="J21" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3123,19 +3159,19 @@
         <v>87</v>
       </c>
       <c r="E22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F22" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G22" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H22" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="J22" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -3152,22 +3188,22 @@
         <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H23" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I23" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="J23" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3184,16 +3220,16 @@
         <v>89</v>
       </c>
       <c r="E24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F24" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H24" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="J24" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3210,19 +3246,19 @@
         <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F25" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G25" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H25" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J25" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -3239,19 +3275,19 @@
         <v>91</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F26" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G26" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H26" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="J26" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -3268,19 +3304,19 @@
         <v>92</v>
       </c>
       <c r="E27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F27" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H27" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I27" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="J27" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3297,19 +3333,19 @@
         <v>93</v>
       </c>
       <c r="E28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F28" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H28" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="I28" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="J28" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3326,19 +3362,19 @@
         <v>94</v>
       </c>
       <c r="E29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F29" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H29" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I29" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="J29" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -3355,13 +3391,13 @@
         <v>95</v>
       </c>
       <c r="E30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F30" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H30" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3378,19 +3414,19 @@
         <v>96</v>
       </c>
       <c r="E31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F31" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H31" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I31" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="J31" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3407,22 +3443,22 @@
         <v>74</v>
       </c>
       <c r="E32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F32" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G32" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H32" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="I32" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="J32" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3439,22 +3475,22 @@
         <v>97</v>
       </c>
       <c r="E33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F33" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G33" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H33" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I33" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="J33" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3471,19 +3507,19 @@
         <v>98</v>
       </c>
       <c r="E34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F34" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H34" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I34" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J34" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3500,19 +3536,19 @@
         <v>99</v>
       </c>
       <c r="E35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F35" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G35" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H35" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J35" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -3529,22 +3565,22 @@
         <v>71</v>
       </c>
       <c r="E36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F36" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G36" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H36" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="I36" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="J36" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -3561,22 +3597,22 @@
         <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F37" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G37" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H37" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="I37" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="J37" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3638,28 +3674,28 @@
         <v>20330051920187</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F2" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H2" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="I2" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="J2" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3667,28 +3703,28 @@
         <v>20330051920220</v>
       </c>
       <c r="B3" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E3" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="F3" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="G3" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="H3" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="J3" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3696,28 +3732,28 @@
         <v>20330051920221</v>
       </c>
       <c r="B4" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D4" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="E4" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F4" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="H4" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="I4" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="J4" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3731,22 +3767,22 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E5" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F5" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="H5" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="I5" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="J5" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3754,31 +3790,31 @@
         <v>20330051920222</v>
       </c>
       <c r="B6" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C6" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D6" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E6" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="F6" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="G6" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="H6" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="I6" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="J6" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3786,28 +3822,28 @@
         <v>20330051920223</v>
       </c>
       <c r="B7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="H7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="I7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="J7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3815,31 +3851,31 @@
         <v>20330051920224</v>
       </c>
       <c r="B8" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C8" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D8" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E8" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F8" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="G8" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H8" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="I8" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="J8" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3847,28 +3883,28 @@
         <v>20330051920225</v>
       </c>
       <c r="B9" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D9" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="E9" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F9" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="G9" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="H9" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="J9" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3879,25 +3915,25 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D10" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="E10" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="F10" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="H10" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="I10" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="J10" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3908,25 +3944,25 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D11" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E11" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G11" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="H11" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="J11" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3937,28 +3973,28 @@
         <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D12" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E12" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F12" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="G12" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="H12" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="I12" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="J12" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3969,28 +4005,28 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D13" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E13" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F13" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="G13" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="H13" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="I13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="J13" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4004,25 +4040,25 @@
         <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E14" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F14" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="G14" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="H14" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="I14" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="J14" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4033,25 +4069,25 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D15" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E15" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F15" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="G15" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="H15" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="J15" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4059,31 +4095,31 @@
         <v>20330051920231</v>
       </c>
       <c r="B16" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C16" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D16" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E16" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F16" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="G16" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="H16" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="I16" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="J16" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4091,31 +4127,31 @@
         <v>20330051920232</v>
       </c>
       <c r="B17" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C17" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D17" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E17" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F17" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="G17" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="H17" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="I17" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="J17" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4123,31 +4159,31 @@
         <v>20330051920233</v>
       </c>
       <c r="B18" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C18" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D18" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E18" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="F18" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="G18" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="H18" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="I18" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="J18" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4155,31 +4191,31 @@
         <v>20330051920234</v>
       </c>
       <c r="B19" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C19" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D19" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="E19" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="F19" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="G19" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H19" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="I19" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="J19" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -4187,31 +4223,31 @@
         <v>20330051920376</v>
       </c>
       <c r="B20" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C20" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D20" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E20" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F20" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="G20" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="H20" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="I20" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="J20" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -4222,28 +4258,28 @@
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D21" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E21" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F21" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="G21" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="H21" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="I21" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="J21" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -4251,28 +4287,28 @@
         <v>20330051920237</v>
       </c>
       <c r="B22" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C22" t="s">
         <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="E22" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="F22" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="H22" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="I22" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="J22" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -4280,31 +4316,31 @@
         <v>20330051920238</v>
       </c>
       <c r="B23" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C23" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D23" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="E23" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="F23" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="G23" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="H23" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="I23" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="J23" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -4312,31 +4348,31 @@
         <v>20330051920239</v>
       </c>
       <c r="B24" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C24" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D24" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="E24" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F24" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="G24" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="H24" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="I24" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="J24" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -4344,31 +4380,31 @@
         <v>20330051920240</v>
       </c>
       <c r="B25" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E25" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="F25" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G25" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="H25" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="I25" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="J25" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -4376,31 +4412,31 @@
         <v>20330051920241</v>
       </c>
       <c r="B26" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C26" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D26" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E26" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="F26" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="G26" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="H26" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="I26" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="J26" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -4408,31 +4444,31 @@
         <v>20330051920243</v>
       </c>
       <c r="B27" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="E27" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="F27" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="G27" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H27" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="I27" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="J27" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -4440,25 +4476,25 @@
         <v>20330051920244</v>
       </c>
       <c r="B28" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C28" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D28" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="E28" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F28" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="H28" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="J28" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -4466,31 +4502,31 @@
         <v>20330051920245</v>
       </c>
       <c r="B29" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C29" t="s">
         <v>64</v>
       </c>
       <c r="D29" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E29" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="F29" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G29" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="H29" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="I29" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="J29" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -4498,31 +4534,31 @@
         <v>20330051920247</v>
       </c>
       <c r="B30" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C30" t="s">
         <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E30" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F30" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="G30" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="H30" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="I30" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="J30" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -4533,28 +4569,28 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D31" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="E31" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="F31" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="G31" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="H31" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="I31" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="J31" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -4565,28 +4601,28 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D32" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E32" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="F32" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="G32" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="H32" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="I32" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="J32" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -4600,25 +4636,25 @@
         <v>48</v>
       </c>
       <c r="D33" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E33" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F33" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="G33" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="H33" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="I33" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="J33" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -4626,28 +4662,28 @@
         <v>20330051920251</v>
       </c>
       <c r="B34" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C34" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D34" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E34" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="F34" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="H34" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="I34" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="J34" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -4655,31 +4691,31 @@
         <v>20330051920252</v>
       </c>
       <c r="B35" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C35" t="s">
         <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="E35" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="F35" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="G35" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="H35" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="I35" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="J35" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -4687,28 +4723,28 @@
         <v>20330051920253</v>
       </c>
       <c r="B36" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C36" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D36" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E36" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F36" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="G36" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="H36" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="J36" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -4719,25 +4755,25 @@
         <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D37" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E37" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="F37" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="H37" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="I37" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="J37" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -4745,31 +4781,31 @@
         <v>20330051920257</v>
       </c>
       <c r="B38" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C38" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D38" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="E38" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="F38" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="G38" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="H38" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="I38" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="J38" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -4783,19 +4819,19 @@
         <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="E39" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F39" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="G39" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H39" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -4809,19 +4845,19 @@
         <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E40" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F40" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="G40" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="H40" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -4883,28 +4919,28 @@
         <v>20330051920336</v>
       </c>
       <c r="B2" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C2" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="D2" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="E2" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="F2" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="H2" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="I2" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="J2" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4915,25 +4951,25 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="D3" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="E3" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="F3" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="H3" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="I3" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="J3" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4941,31 +4977,31 @@
         <v>20330051920263</v>
       </c>
       <c r="B4" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C4" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="D4" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="E4" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="F4" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="G4" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="H4" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="I4" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="J4" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4976,28 +5012,28 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="D5" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="E5" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="F5" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="G5" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="H5" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="I5" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="J5" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5005,13 +5041,31 @@
         <v>20330051920340</v>
       </c>
       <c r="B6" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C6" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="D6" t="s">
-        <v>561</v>
+        <v>565</v>
+      </c>
+      <c r="E6" t="s">
+        <v>584</v>
+      </c>
+      <c r="F6" t="s">
+        <v>609</v>
+      </c>
+      <c r="G6" t="s">
+        <v>609</v>
+      </c>
+      <c r="H6" t="s">
+        <v>645</v>
+      </c>
+      <c r="I6" t="s">
+        <v>584</v>
+      </c>
+      <c r="J6" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5019,31 +5073,31 @@
         <v>20330051920341</v>
       </c>
       <c r="B7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="D7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="E7" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="F7" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="G7" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="H7" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="I7" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="J7" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5051,28 +5105,28 @@
         <v>20330051920342</v>
       </c>
       <c r="B8" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C8" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="D8" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="E8" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="F8" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="H8" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="I8" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="J8" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5080,31 +5134,31 @@
         <v>20330051920343</v>
       </c>
       <c r="B9" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C9" t="s">
         <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="E9" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="F9" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="G9" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="H9" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="I9" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="J9" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5115,25 +5169,25 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="D10" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="E10" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="F10" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="H10" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="I10" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="J10" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5144,25 +5198,25 @@
         <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D11" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="E11" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="F11" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="H11" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="I11" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="J11" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5173,28 +5227,28 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="D12" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="E12" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="F12" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="G12" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="H12" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="I12" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="J12" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5205,22 +5259,22 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D13" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="E13" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="F13" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="G13" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="H13" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5231,28 +5285,28 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="D14" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="E14" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="F14" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="G14" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="H14" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="I14" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="J14" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5266,22 +5320,22 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E15" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="F15" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="H15" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="I15" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="J15" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5289,31 +5343,31 @@
         <v>20330051920348</v>
       </c>
       <c r="B16" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C16" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="D16" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="E16" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="F16" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="G16" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="H16" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="I16" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="J16" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5321,28 +5375,28 @@
         <v>20330051920349</v>
       </c>
       <c r="B17" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="E17" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="F17" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="H17" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="I17" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="J17" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5356,25 +5410,25 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="E18" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="F18" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="G18" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="H18" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="I18" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="J18" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5382,31 +5436,31 @@
         <v>20330051920352</v>
       </c>
       <c r="B19" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C19" t="s">
         <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="E19" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="F19" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="G19" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="H19" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="I19" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="J19" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -5420,25 +5474,25 @@
         <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="E20" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="F20" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="G20" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="H20" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="I20" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="J20" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -5446,31 +5500,31 @@
         <v>20330051920354</v>
       </c>
       <c r="B21" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="C21" t="s">
         <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="E21" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="F21" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="G21" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="H21" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="I21" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="J21" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -5478,31 +5532,31 @@
         <v>20330051920355</v>
       </c>
       <c r="B22" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E22" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="F22" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="G22" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="H22" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="I22" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="J22" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -5510,31 +5564,31 @@
         <v>20330051920382</v>
       </c>
       <c r="B23" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="E23" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="F23" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="G23" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="H23" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="I23" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="J23" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -5542,28 +5596,28 @@
         <v>20330051920356</v>
       </c>
       <c r="B24" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C24" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D24" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="E24" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="F24" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="H24" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="I24" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="J24" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -5571,31 +5625,31 @@
         <v>20330051920357</v>
       </c>
       <c r="B25" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="C25" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="D25" t="s">
         <v>81</v>
       </c>
       <c r="E25" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="F25" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="G25" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="H25" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="I25" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="J25" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -5606,28 +5660,28 @@
         <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D26" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="E26" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="F26" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="G26" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="H26" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="I26" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="J26" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
     </row>
   </sheetData>
